--- a/learning_log/learning_log.xlsx
+++ b/learning_log/learning_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new_java\docs\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E252539C-283C-47D5-A05D-8EEF0C4D22F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDB45A-4909-4CFB-BBF4-A958605E0517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="1344" windowWidth="11172" windowHeight="8964" xr2:uid="{8FC27694-8476-4916-A1A9-C5477B21A097}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FC27694-8476-4916-A1A9-C5477B21A097}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,17 +72,26 @@
     <t>https://git-scm.com/book/ko/v2/Git-%EC%84%9C%EB%B2%84-SSH-%EA%B3%B5%EA%B0%9C%ED%82%A4-%EB%A7%8C%EB%93%A4%EA%B8%B0</t>
   </si>
   <si>
-    <t>git ssh-key 등록 정리
-인텔리제이 설치 및 환경설정
-자바 복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://stackoverflow.com/questions/4822471/count-number-of-lines-in-a-git-repository</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git 라인 수 계산 정리</t>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git ssh-key 등록 문서
+인텔리제이 설치 및 환경설정 문서
+자바 Club 구현 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 라인 수 계산 문서
+자바 Club 구현 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 Club 구현 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,16 +116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -204,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -223,11 +232,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,14 +564,15 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="50.69921875" customWidth="1"/>
+    <col min="7" max="7" width="50.69921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="50.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -594,9 +610,11 @@
         <v>8</v>
       </c>
       <c r="C3" s="2">
+        <f>120</f>
         <v>120</v>
       </c>
       <c r="D3" s="2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E3" s="2">
@@ -604,13 +622,14 @@
         <v>242</v>
       </c>
       <c r="F3" s="2">
+        <f>901</f>
         <v>901</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
@@ -621,9 +640,11 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D4" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -634,31 +655,49 @@
         <f>2158-F3</f>
         <v>1257</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>200205</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="C5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f>177+40+28</f>
+        <v>245</v>
+      </c>
+      <c r="F5" s="1">
+        <f>2828-F4-F3</f>
+        <v>670</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -668,7 +707,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -678,17 +717,17 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -698,7 +737,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -708,17 +747,17 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -728,7 +767,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -738,7 +777,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -748,7 +787,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -758,7 +797,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -768,7 +807,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -778,7 +817,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -788,7 +827,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -798,7 +837,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -808,7 +847,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -818,7 +857,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -828,7 +867,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -838,7 +877,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -848,7 +887,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -858,7 +897,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -868,7 +907,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -878,7 +917,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -888,7 +927,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -898,7 +937,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -908,7 +947,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -918,7 +957,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -928,7 +967,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -938,7 +977,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -948,7 +987,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -958,7 +997,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -968,7 +1007,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -978,7 +1017,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -988,7 +1027,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -998,7 +1037,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -1008,7 +1047,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -1018,7 +1057,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -1028,7 +1067,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -1038,7 +1077,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -1048,7 +1087,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -1058,7 +1097,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -1068,7 +1107,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -1078,7 +1117,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
@@ -1088,7 +1127,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -1098,7 +1137,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -1108,7 +1147,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -1118,7 +1157,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -1128,7 +1167,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
@@ -1138,7 +1177,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -1148,7 +1187,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -1158,7 +1197,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -1168,7 +1207,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -1178,7 +1217,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -1188,7 +1227,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -1198,7 +1237,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -1208,7 +1247,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -1218,7 +1257,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -1228,7 +1267,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -1238,7 +1277,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -1248,7 +1287,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -1258,7 +1297,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -1268,7 +1307,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -1278,7 +1317,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -1288,7 +1327,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -1298,7 +1337,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -1308,7 +1347,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -1318,7 +1357,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -1328,7 +1367,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -1338,7 +1377,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -1348,7 +1387,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -1358,7 +1397,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -1368,7 +1407,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -1378,7 +1417,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -1388,7 +1427,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -1398,7 +1437,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -1408,7 +1447,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="9"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -1418,7 +1457,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="9"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -1428,7 +1467,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -1438,7 +1477,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -1448,7 +1487,7 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -1458,7 +1497,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="9"/>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -1468,7 +1507,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="G87" s="9"/>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -1478,7 +1517,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="9"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -1488,7 +1527,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="9"/>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -1498,7 +1537,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="9"/>
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -1508,7 +1547,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="9"/>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -1518,7 +1557,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="9"/>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -1528,7 +1567,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -1538,7 +1577,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
@@ -1548,7 +1587,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
@@ -1558,7 +1597,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -1568,7 +1607,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -1578,7 +1617,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="9"/>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
@@ -1588,7 +1627,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
@@ -1598,7 +1637,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="G100" s="9"/>
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -1608,7 +1647,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="G101" s="9"/>
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
@@ -1618,7 +1657,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="9"/>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
@@ -1628,7 +1667,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="G103" s="9"/>
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
@@ -1638,7 +1677,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
@@ -1648,7 +1687,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="9"/>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -1658,7 +1697,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="9"/>
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
@@ -1668,7 +1707,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
@@ -1678,7 +1717,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="G108" s="9"/>
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
@@ -1688,7 +1727,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="G109" s="9"/>
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
@@ -1698,7 +1737,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="G110" s="9"/>
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
@@ -1708,7 +1747,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="G111" s="9"/>
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
@@ -1718,7 +1757,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="G112" s="9"/>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
@@ -1728,7 +1767,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="1"/>
     </row>
   </sheetData>

--- a/learning_log/learning_log.xlsx
+++ b/learning_log/learning_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new_java\docs\learning_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDB45A-4909-4CFB-BBF4-A958605E0517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6486F6B-8F62-4CE1-ADDD-F09EA3151387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FC27694-8476-4916-A1A9-C5477B21A097}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>자바 Club 구현 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +568,7 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -690,15 +694,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>200206</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f>118+68+54</f>
+        <v>240</v>
+      </c>
+      <c r="F6" s="1">
+        <f>3231-F3-F4-F5</f>
+        <v>403</v>
+      </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
